--- a/data/統計量.xlsx
+++ b/data/統計量.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F29757-BF32-47E8-B15C-BA162411A4D3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFCEC6A-B54B-4E86-B083-F6B221869B7A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>高評価者</t>
     <rPh sb="0" eb="3">
@@ -149,6 +150,34 @@
     <rPh sb="6" eb="7">
       <t>ホン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用した単語の種類数</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュルイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閾値(%)</t>
+    <rPh sb="0" eb="2">
+      <t>シキイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RandomForest(%)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NB(%)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -156,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +206,15 @@
       <name val="Var(--jp-code-font-family)"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -194,15 +232,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -485,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:C10"/>
     </sheetView>
   </sheetViews>
@@ -626,6 +905,194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6F56B3-36A7-4260-B40B-5C527D642C65}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="3" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.49</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15">
+        <v>81</v>
+      </c>
+      <c r="D6" s="16">
+        <v>300</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1387</v>
+      </c>
+      <c r="F6" s="17">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="15">
+        <v>107</v>
+      </c>
+      <c r="D14" s="16">
+        <v>382</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1609</v>
+      </c>
+      <c r="F14" s="17">
+        <v>7212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F29DF45-D7C3-427B-9291-4C2B25A2EBEF}">
   <dimension ref="A1:C25"/>
   <sheetViews>
